--- a/data/tidy/Биохимический анализ крови.xlsx
+++ b/data/tidy/Биохимический анализ крови.xlsx
@@ -61,18 +61,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +90,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,13 +403,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>66.54</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" t="n">
         <v>4.85</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" t="n">
         <v>6.04</v>
       </c>
     </row>
@@ -423,13 +417,13 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>63.54</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" t="n">
         <v>5.99</v>
       </c>
     </row>
@@ -437,13 +431,13 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>70.36</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" t="n">
         <v>4.08</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" t="n">
         <v>5.93</v>
       </c>
     </row>
@@ -451,13 +445,13 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>70.15</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" t="n">
         <v>4.67</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" t="n">
         <v>5.92</v>
       </c>
     </row>
@@ -465,13 +459,13 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>66.13</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" t="n">
         <v>4.79</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" t="n">
         <v>6.03</v>
       </c>
     </row>
@@ -479,13 +473,13 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>71.99</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" t="n">
         <v>4.38</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" t="n">
         <v>5.94</v>
       </c>
     </row>
@@ -493,13 +487,13 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>74.57</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" t="n">
         <v>4.21</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" t="n">
         <v>5.99</v>
       </c>
     </row>
@@ -507,13 +501,13 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>62.62</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" t="n">
         <v>5.19</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -521,13 +515,13 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>71.2</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" t="n">
         <v>6.11</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -535,13 +529,13 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>69.9</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" t="n">
         <v>4.95</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" t="n">
         <v>6</v>
       </c>
     </row>
